--- a/data/dataentry - simulasi dan upload foto.xlsx
+++ b/data/dataentry - simulasi dan upload foto.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="9555" windowHeight="4440"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="9555" windowHeight="4440" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="simulasi kredit" sheetId="1" r:id="rId1"/>
+    <sheet name="borrower" sheetId="2" r:id="rId2"/>
+    <sheet name="BANK" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="469">
   <si>
     <t>varBrand</t>
   </si>
@@ -316,31 +318,1115 @@
     <t>TOYOTA</t>
   </si>
   <si>
+    <t>KONSUMTIF</t>
+  </si>
+  <si>
+    <t>abc.jpg</t>
+  </si>
+  <si>
+    <t>100103005056249</t>
+  </si>
+  <si>
+    <t>AGYA</t>
+  </si>
+  <si>
+    <t>1.2 GM/T NEWTRD</t>
+  </si>
+  <si>
+    <t>AI TSO-JKT KRIDA</t>
+  </si>
+  <si>
+    <t>ADDM</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>TSE1X</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>344001</t>
+  </si>
+  <si>
+    <t>noreg</t>
+  </si>
+  <si>
+    <t>AllStatusPerkawinan</t>
+  </si>
+  <si>
+    <t>AllGuarantor</t>
+  </si>
+  <si>
+    <t>BvarPekerjaanTab</t>
+  </si>
+  <si>
+    <t>BvarUsahaTab</t>
+  </si>
+  <si>
+    <t>BIvarTahun</t>
+  </si>
+  <si>
+    <t>BIvarNoKTP</t>
+  </si>
+  <si>
+    <t>BIvarNamaSesuaiIdentitas</t>
+  </si>
+  <si>
+    <t>BIvarTempatLahir</t>
+  </si>
+  <si>
+    <t>BIvarAlamatLengkap</t>
+  </si>
+  <si>
+    <t>BIvarRT</t>
+  </si>
+  <si>
+    <t>BIvarRW</t>
+  </si>
+  <si>
+    <t>BIvarKodePos</t>
+  </si>
+  <si>
+    <t>BIvarAgama</t>
+  </si>
+  <si>
+    <t>BIvarStatusPerkawinan</t>
+  </si>
+  <si>
+    <t>BIvarNegaraAsal</t>
+  </si>
+  <si>
+    <t>BIvarNomorPassport</t>
+  </si>
+  <si>
+    <t>BIvarKewarganegaraan</t>
+  </si>
+  <si>
+    <t>BIvarMasaBerlaku</t>
+  </si>
+  <si>
+    <t>BIvarJenisKelamin</t>
+  </si>
+  <si>
+    <t>BIvarVerifikasi</t>
+  </si>
+  <si>
+    <t>BIUvarNamaLengkapTanpaSingkatan</t>
+  </si>
+  <si>
+    <t>BIUvarNamaPanggilan</t>
+  </si>
+  <si>
+    <t>BIUvarNoNPWP</t>
+  </si>
+  <si>
+    <t>BIUvarNamaNPWP</t>
+  </si>
+  <si>
+    <t>BIUvarNamaIbuKandung</t>
+  </si>
+  <si>
+    <t>BIUvarPendidikan</t>
+  </si>
+  <si>
+    <t>BIUvarAlamatEmail</t>
+  </si>
+  <si>
+    <t>BIUvarSumberDanaUangMuka</t>
+  </si>
+  <si>
+    <t>BIUvarSumberDanaAngsuran</t>
+  </si>
+  <si>
+    <t>BIUvarKepemilikanDana</t>
+  </si>
+  <si>
+    <t>BIUvarAlamatMenyurat</t>
+  </si>
+  <si>
+    <t>BDvarAlamatLengkap</t>
+  </si>
+  <si>
+    <t>BDvarRT</t>
+  </si>
+  <si>
+    <t>BDvarRW</t>
+  </si>
+  <si>
+    <t>BDvarKodePos</t>
+  </si>
+  <si>
+    <t>BDvarNegaraDomisili</t>
+  </si>
+  <si>
+    <t>BDvarPetunjukAlamat</t>
+  </si>
+  <si>
+    <t>BDvarNoTelponFixedLine</t>
+  </si>
+  <si>
+    <t>BDvarKodeArea</t>
+  </si>
+  <si>
+    <t>BDvarTinggalSejakTahun</t>
+  </si>
+  <si>
+    <t>BDvarStatusTempatTinggal</t>
+  </si>
+  <si>
+    <t>BDvarTelponSelular</t>
+  </si>
+  <si>
+    <t>BDvarDomisili</t>
+  </si>
+  <si>
+    <t>BDvarROAO</t>
+  </si>
+  <si>
+    <t>BPvarPekerjaan</t>
+  </si>
+  <si>
+    <t>BPvarJabatan</t>
+  </si>
+  <si>
+    <t>BPvarDepartemen</t>
+  </si>
+  <si>
+    <t>BPvarStatusKaryawan</t>
+  </si>
+  <si>
+    <t>BPvarNoIndukKaryawan</t>
+  </si>
+  <si>
+    <t>BPvarBergabungSejak</t>
+  </si>
+  <si>
+    <t>BPvarBadanUsaha</t>
+  </si>
+  <si>
+    <t>BPvarNamaPerusahaan</t>
+  </si>
+  <si>
+    <t>BPvarBidangUsaha</t>
+  </si>
+  <si>
+    <t>BPvarSubBidangUsaha</t>
+  </si>
+  <si>
+    <t>BPvarNationalityPerusahaan</t>
+  </si>
+  <si>
+    <t>BPvarWebsite</t>
+  </si>
+  <si>
+    <t>BPvarJenisAkunSosialMedia</t>
+  </si>
+  <si>
+    <t>BPvarAkunSosialMedia</t>
+  </si>
+  <si>
+    <t>BPvarAlamatKantor</t>
+  </si>
+  <si>
+    <t>BPvarRT</t>
+  </si>
+  <si>
+    <t>BPvarRW</t>
+  </si>
+  <si>
+    <t>BPvarKodePos</t>
+  </si>
+  <si>
+    <t>BPvarPetunjukAlamat</t>
+  </si>
+  <si>
+    <t>BPvarKodeArea</t>
+  </si>
+  <si>
+    <t>BPvarNoTeleponKantor</t>
+  </si>
+  <si>
+    <t>BPvarEXT</t>
+  </si>
+  <si>
+    <t>BPvarTeleponSeluler</t>
+  </si>
+  <si>
+    <t>BUvarPekerjaan</t>
+  </si>
+  <si>
+    <t>BUvarBadanUsaha</t>
+  </si>
+  <si>
+    <t>BUvarNamaUsaha</t>
+  </si>
+  <si>
+    <t>BUvarBidangUsaha</t>
+  </si>
+  <si>
+    <t>BUvarSubBidangUsaha</t>
+  </si>
+  <si>
+    <t>BUvarTanggalMulaiBisnis</t>
+  </si>
+  <si>
+    <t>BUvarAlamatKantor</t>
+  </si>
+  <si>
+    <t>BUvarKodePos</t>
+  </si>
+  <si>
+    <t>BUvarRT</t>
+  </si>
+  <si>
+    <t>BUvarRW</t>
+  </si>
+  <si>
+    <t>BUvarPetunjukAlamat</t>
+  </si>
+  <si>
+    <t>BUvarKodeArea</t>
+  </si>
+  <si>
+    <t>BUvarNoTelponKantor</t>
+  </si>
+  <si>
+    <t>BUvarTeleponSeluler</t>
+  </si>
+  <si>
+    <t>BUvarWebsite</t>
+  </si>
+  <si>
+    <t>BUvarJenisAkunSosialMedia</t>
+  </si>
+  <si>
+    <t>BUvarAkunSosialMedia</t>
+  </si>
+  <si>
+    <t>BUvarEXT</t>
+  </si>
+  <si>
+    <t>BUvarSesuaiDomisili</t>
+  </si>
+  <si>
+    <t>BEvarNamaLengkap</t>
+  </si>
+  <si>
+    <t>BEvarHubungan</t>
+  </si>
+  <si>
+    <t>BEvarAlamat</t>
+  </si>
+  <si>
+    <t>BEvarRT</t>
+  </si>
+  <si>
+    <t>BEvarRW</t>
+  </si>
+  <si>
+    <t>BEvarKodePos</t>
+  </si>
+  <si>
+    <t>BEvarKodeArea</t>
+  </si>
+  <si>
+    <t>BEvarNoTelponKantor</t>
+  </si>
+  <si>
+    <t>BEvarEXT</t>
+  </si>
+  <si>
+    <t>BEvarTeleponSelular</t>
+  </si>
+  <si>
+    <t>BEvarEmail</t>
+  </si>
+  <si>
+    <t>Unmarried</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>UNMARRIED</t>
+  </si>
+  <si>
+    <t>INDONESIA</t>
+  </si>
+  <si>
+    <t>WNI</t>
+  </si>
+  <si>
+    <t>qcaccompanies@gmail.com</t>
+  </si>
+  <si>
+    <t>GAJI</t>
+  </si>
+  <si>
+    <t>BORROWER</t>
+  </si>
+  <si>
+    <t>Domisili</t>
+  </si>
+  <si>
+    <t>081904067865</t>
+  </si>
+  <si>
+    <t>PENGUSAHA</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>CUCU</t>
+  </si>
+  <si>
+    <t>SYAIFULLOH</t>
+  </si>
+  <si>
+    <t>CILANDAK</t>
+  </si>
+  <si>
+    <t>ISLAM</t>
+  </si>
+  <si>
+    <t>laki laki</t>
+  </si>
+  <si>
+    <t>Komtrakan</t>
+  </si>
+  <si>
+    <t>Saoleha</t>
+  </si>
+  <si>
+    <t>S-1</t>
+  </si>
+  <si>
+    <t>MILIK KELUARGA</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+  </si>
+  <si>
+    <t>BANK MAYORA</t>
+  </si>
+  <si>
+    <t>JASA</t>
+  </si>
+  <si>
+    <t>PENUKARAN MATA UANG</t>
+  </si>
+  <si>
+    <t>JL TOMANG RAYA KAV 21..</t>
+  </si>
+  <si>
+    <t>YBS SBG STAFF ADMIN</t>
+  </si>
+  <si>
+    <t>ANGKUTAN DAN TRANSPORTASI</t>
+  </si>
+  <si>
+    <t>ANGKUTAN JALAN REL</t>
+  </si>
+  <si>
+    <t>CILANDAK JL H JAHA NO 65</t>
+  </si>
+  <si>
+    <t>MENYATU DG RMH</t>
+  </si>
+  <si>
+    <t>DENIS</t>
+  </si>
+  <si>
+    <t>3174043112890000</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>KARYAWAN SWASTA</t>
+  </si>
+  <si>
+    <t>ACCOUNTING/FINANCE OFFICER</t>
+  </si>
+  <si>
+    <t>TETAP</t>
+  </si>
+  <si>
+    <t>varPenghasilanKotorSatu</t>
+  </si>
+  <si>
+    <t>varPenghasilanKotorDua</t>
+  </si>
+  <si>
+    <t>varPenghasilanKotorTiga</t>
+  </si>
+  <si>
+    <t>varJenisPekerjaanAtauUsahaSatu</t>
+  </si>
+  <si>
+    <t>varJenisPekerjaanAtauUsahaDua</t>
+  </si>
+  <si>
+    <t>varJenisPekerjaanAtauUsahaTiga</t>
+  </si>
+  <si>
+    <t>varSumberPenghasilanSatu</t>
+  </si>
+  <si>
+    <t>varPemilikPenghasilanSatu</t>
+  </si>
+  <si>
+    <t>varPenghasilanDua</t>
+  </si>
+  <si>
+    <t>varPenghasilanTiga</t>
+  </si>
+  <si>
+    <t>varNamaCabang</t>
+  </si>
+  <si>
+    <t>varNomorRekening</t>
+  </si>
+  <si>
+    <t>varNamaPemegangRekening</t>
+  </si>
+  <si>
+    <t>varSumberDanaBilaTidakBekerja</t>
+  </si>
+  <si>
+    <t>varMetodePembayaran</t>
+  </si>
+  <si>
+    <t>varPembukaanRekeningPermata</t>
+  </si>
+  <si>
+    <t>varNamaBank</t>
+  </si>
+  <si>
+    <t>varBulan</t>
+  </si>
+  <si>
+    <t>varFrekuensiDebit</t>
+  </si>
+  <si>
+    <t>varFrekuensiKredit</t>
+  </si>
+  <si>
+    <t>varMutasiDebit</t>
+  </si>
+  <si>
+    <t>varMutasiKredit</t>
+  </si>
+  <si>
+    <t>varSaldoTertinggi</t>
+  </si>
+  <si>
+    <t>varSaldoRataRata</t>
+  </si>
+  <si>
+    <t>varSaldoTerrendah</t>
+  </si>
+  <si>
+    <t>varFrekuensiTolakanLuar</t>
+  </si>
+  <si>
+    <t>varFrekuensiTolakanDalam</t>
+  </si>
+  <si>
+    <t>varTambahBankHistory</t>
+  </si>
+  <si>
+    <t>Pekerjaan</t>
+  </si>
+  <si>
+    <t>Borrower</t>
+  </si>
+  <si>
+    <t>BCA-JKT-KHM MANYUR II</t>
+  </si>
+  <si>
+    <t>FANNY</t>
+  </si>
+  <si>
+    <t>INDUSTRI PENGOLAHAN LAINNYA</t>
+  </si>
+  <si>
+    <t>BCA-JKT-PASAR KENARI</t>
+  </si>
+  <si>
+    <t>6495979858867</t>
+  </si>
+  <si>
+    <t>SYAIFULLAH</t>
+  </si>
+  <si>
+    <t>GRAND AVANZA</t>
+  </si>
+  <si>
+    <t>1.5 VELOZ MT</t>
+  </si>
+  <si>
+    <t>AI TSO-JKT KRAMATJATI</t>
+  </si>
+  <si>
+    <t>ADDB</t>
+  </si>
+  <si>
+    <t>TLN1A</t>
+  </si>
+  <si>
+    <t>1.3 G MT</t>
+  </si>
+  <si>
+    <t>ASTRIDO JAYA M-JKT FATMAWATI</t>
+  </si>
+  <si>
+    <t>TIDAK</t>
+  </si>
+  <si>
+    <t>SIENTA</t>
+  </si>
+  <si>
+    <t>1.5 V M/T BLACK</t>
+  </si>
+  <si>
+    <t>AI TSO-JKT TEBET</t>
+  </si>
+  <si>
+    <t>TLN1X</t>
+  </si>
+  <si>
     <t>CALYA</t>
   </si>
   <si>
+    <t>1.2 E STD M/T</t>
+  </si>
+  <si>
+    <t>1.3 E MT</t>
+  </si>
+  <si>
+    <t>AI TSO-JKT TEBET SAHARDJO</t>
+  </si>
+  <si>
+    <t>1.2 G M/T</t>
+  </si>
+  <si>
     <t>AI TSO-JKT KAPUK</t>
   </si>
   <si>
-    <t>DEDE SUTRISNA</t>
-  </si>
-  <si>
-    <t>ADDB</t>
-  </si>
-  <si>
-    <t>TIDAK</t>
-  </si>
-  <si>
-    <t>KONSUMTIF</t>
-  </si>
-  <si>
-    <t>1.2 G M/T - 004</t>
+    <t>T:1.2 G M/T</t>
+  </si>
+  <si>
+    <t>PLAZA AUTO PRIMA-CBN CITEUREUP</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>NEW YARIS</t>
+  </si>
+  <si>
+    <t>S M/T TRD</t>
+  </si>
+  <si>
+    <t>AI TSO-BGR CIBINONG</t>
+  </si>
+  <si>
+    <t>100103005056524</t>
+  </si>
+  <si>
+    <t>100103005056583</t>
+  </si>
+  <si>
+    <t>100103005056605</t>
+  </si>
+  <si>
+    <t>100103005057075</t>
+  </si>
+  <si>
+    <t>100103005057814</t>
   </si>
   <si>
     <t>100163001040671</t>
   </si>
   <si>
-    <t>abc.jpg</t>
+    <t>200273001900472</t>
+  </si>
+  <si>
+    <t>200273001900421</t>
+  </si>
+  <si>
+    <t>MULI</t>
+  </si>
+  <si>
+    <t>JL TIMOR TIMUR NO 12</t>
+  </si>
+  <si>
+    <t>NENI</t>
+  </si>
+  <si>
+    <t>LAINNYA</t>
+  </si>
+  <si>
+    <t>YBS DIKENAL RUMAH UDIN GEBOY, CAT HIJAU YG ATAS MERAH
+HUB 081383374978</t>
+  </si>
+  <si>
+    <t>MILIK SENDIRI LUNAS</t>
+  </si>
+  <si>
+    <t>PEGAWAI NEGERI SIPIL</t>
+  </si>
+  <si>
+    <t>PENGAMANAN</t>
+  </si>
+  <si>
+    <t>SEKURITI</t>
+  </si>
+  <si>
+    <t>tetap</t>
+  </si>
+  <si>
+    <t>RAPIK KARYA MANDIRI</t>
+  </si>
+  <si>
+    <t>JASA KEGIATAN LAINNYA</t>
+  </si>
+  <si>
+    <t>RUKO DE ESTRELA JL KP SINDANG</t>
+  </si>
+  <si>
+    <t>MHN HUB 081383374978</t>
+  </si>
+  <si>
+    <t>KONTRAKAN</t>
+  </si>
+  <si>
+    <t>KONSTRUKSI</t>
+  </si>
+  <si>
+    <t>PENGHANCUR BANGUNAN</t>
+  </si>
+  <si>
+    <t>YBS ADA KONTRAKAN 2 PINTU, MHN GALI OMZET
+HUB 081383374978</t>
+  </si>
+  <si>
+    <t>SUGANDI ERNA</t>
+  </si>
+  <si>
+    <t>Sepupu</t>
+  </si>
+  <si>
+    <t>KJI</t>
+  </si>
+  <si>
+    <t>DWI ARINI ASTUTI</t>
+  </si>
+  <si>
+    <t>JL. H. REBO NO. 19</t>
+  </si>
+  <si>
+    <t>perempuan</t>
+  </si>
+  <si>
+    <t>Angkot</t>
+  </si>
+  <si>
+    <t>TUMINAH</t>
+  </si>
+  <si>
+    <t>YAYASAN AL -MUSAROFAH TANYS PAK SATI MA ORTU</t>
+  </si>
+  <si>
+    <t>INSTANSI</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>PYRIDAM FARMA TBK</t>
+  </si>
+  <si>
+    <t>PERDAGANGAN BESAR</t>
+  </si>
+  <si>
+    <t>BARANG KEPERLUAN RUMAH TANGGA</t>
+  </si>
+  <si>
+    <t>JL KEMANDORAN 8 NO 16</t>
+  </si>
+  <si>
+    <t>YBS BAG GA</t>
+  </si>
+  <si>
+    <t>USAHA D JLNKN SUAMI...
+NO TLP 082111487620 NMA BENNY GULTOM</t>
+  </si>
+  <si>
+    <t>Kiki</t>
+  </si>
+  <si>
+    <t>Ayah/Ibu Kandung</t>
+  </si>
+  <si>
+    <t>CAKUNG</t>
+  </si>
+  <si>
+    <t>DWI FEBRIYA SUSANTI</t>
+  </si>
+  <si>
+    <t>SUMENEP</t>
+  </si>
+  <si>
+    <t>JL AS-SYAFIIYAH</t>
+  </si>
+  <si>
+    <t>WARUNG KELONTONG</t>
+  </si>
+  <si>
+    <t>SUHARIAH</t>
+  </si>
+  <si>
+    <t>ANCER2.SAMPING MUSOLAH DARUSALAM,SAMPING SMK TRISASTRA ADA GG MAKMUR</t>
+  </si>
+  <si>
+    <t>PERAWAT</t>
+  </si>
+  <si>
+    <t>KLINIK NUR ALIF</t>
+  </si>
+  <si>
+    <t>INDUSTRI ALAT KEDOKTERAN</t>
+  </si>
+  <si>
+    <t>INDUSTRI PERALATAN KEDOKTERAN</t>
+  </si>
+  <si>
+    <t>JL RAYA CILANGKAP NO 4A</t>
+  </si>
+  <si>
+    <t>YBS SBG PERAWAT</t>
+  </si>
+  <si>
+    <t>JASA AKOMODASI LAINNYA</t>
+  </si>
+  <si>
+    <t>JL AL BAIDO 1 GG MAKMUR 1</t>
+  </si>
+  <si>
+    <t>USAHA SAMA DENGAN TEMPAT TINGGAL YBS</t>
+  </si>
+  <si>
+    <t>TASIDUN</t>
+  </si>
+  <si>
+    <t>Saudara Ipar</t>
+  </si>
+  <si>
+    <t>DEPOK</t>
+  </si>
+  <si>
+    <t>MARLIANA</t>
+  </si>
+  <si>
+    <t>PD UNGU PERMAI BLOK AS 1 NO 1 5</t>
+  </si>
+  <si>
+    <t>PROTESTAN</t>
+  </si>
+  <si>
+    <t>CATHERING LIANA</t>
+  </si>
+  <si>
+    <t>RUSWITA</t>
+  </si>
+  <si>
+    <t>DIKENAL IBU LIANA</t>
+  </si>
+  <si>
+    <t>JALAN LANGGAR DALAM</t>
+  </si>
+  <si>
+    <t>DIKENAL CATERING LIANA</t>
+  </si>
+  <si>
+    <t>NURYANTO</t>
+  </si>
+  <si>
+    <t>PD UNGU PERMAI AD I NO 3</t>
+  </si>
+  <si>
+    <t>FANNY CHANDRA</t>
+  </si>
+  <si>
+    <t>JL KAPUK RAYA NO 25</t>
+  </si>
+  <si>
+    <t>EMMY CHANDRA</t>
+  </si>
+  <si>
+    <t>RUMAH DAN USAHA SAMA</t>
+  </si>
+  <si>
+    <t>KONTRAK</t>
+  </si>
+  <si>
+    <t>KAPU KENCANA MOTOR</t>
+  </si>
+  <si>
+    <t>ANDRI</t>
+  </si>
+  <si>
+    <t>TUHONI LAOLI</t>
+  </si>
+  <si>
+    <t>NIAS</t>
+  </si>
+  <si>
+    <t>PERUM CITEUREUP RESIDENCE BLO K G4 NO 02</t>
+  </si>
+  <si>
+    <t>RAHMANIA GEA</t>
+  </si>
+  <si>
+    <t>PERUM CITEUREUP RESIDENCE BLO K G4 NO.02</t>
+  </si>
+  <si>
+    <t>NMR HP YBS 081324442582 BLOK G4 NO 2</t>
+  </si>
+  <si>
+    <t>PEMERINTAHAN</t>
+  </si>
+  <si>
+    <t>TNI KOSTRAD</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI PEMERINTAHAN</t>
+  </si>
+  <si>
+    <t>JL MEDAN MERDEKA TIMUR NO 3</t>
+  </si>
+  <si>
+    <t>LOKASI MARKAS KOSTRAD YBS SERSAN 2 BINTARA SEKSI URUSAN DLAM BAGIAN PEMBANGUNAN MNTAL NMR HP 081324442582</t>
+  </si>
+  <si>
+    <t>DINI</t>
+  </si>
+  <si>
+    <t>Saudara Kandung</t>
+  </si>
+  <si>
+    <t>ANGELA KRISTAPHORA SULASTIAWAT</t>
+  </si>
+  <si>
+    <t>CIRENG</t>
+  </si>
+  <si>
+    <t>JL RAWA SENGON NO 38</t>
+  </si>
+  <si>
+    <t>KATOLIK</t>
+  </si>
+  <si>
+    <t>ENDRO KAMPIANUS DAN REKAN</t>
+  </si>
+  <si>
+    <t>PETRONELA DUWUT</t>
+  </si>
+  <si>
+    <t>NO 7A</t>
+  </si>
+  <si>
+    <t>LEGAL</t>
+  </si>
+  <si>
+    <t>HUKUM, AKUNTANSI DAN PEMBUKUAN</t>
+  </si>
+  <si>
+    <t>RUKO CIBUBUR INDAH BLOK F NO16 JL LAP TEMBAK</t>
+  </si>
+  <si>
+    <t>KANTOR SUAMI AN MAKSIMUS HASMAN SH
+JABATAN LEGAL OFFICER</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>SONDANG MARIA SIMANJUNTAK</t>
+  </si>
+  <si>
+    <t>MEDAN</t>
+  </si>
+  <si>
+    <t>JL RAYA DURI KOSAMBI</t>
+  </si>
+  <si>
+    <t>GEREJA HKBP</t>
+  </si>
+  <si>
+    <t>NURSIAH PASARIBU</t>
+  </si>
+  <si>
+    <t>S-2</t>
+  </si>
+  <si>
+    <t>LOKASI DI PERUM CILUAR RESIDENCE BLOK A1 NO 3A TLPN 081389987757</t>
+  </si>
+  <si>
+    <t>AGAMA</t>
+  </si>
+  <si>
+    <t>CILUAR</t>
+  </si>
+  <si>
+    <t>LOKASI DI GEREJA HKBP CILUAR YBS SBG PENDETA TLPN 081389987757</t>
+  </si>
+  <si>
+    <t>SARAH</t>
+  </si>
+  <si>
+    <t>CENGKARENG</t>
+  </si>
+  <si>
+    <t>3175052512760000</t>
+  </si>
+  <si>
+    <t>3174076908770000</t>
+  </si>
+  <si>
+    <t>3175105902890000</t>
+  </si>
+  <si>
+    <t>3216024303830000</t>
+  </si>
+  <si>
+    <t>5310135806930000</t>
+  </si>
+  <si>
+    <t>3173065002820030</t>
+  </si>
+  <si>
+    <t>3210202606820020</t>
+  </si>
+  <si>
+    <t>1202035310630000</t>
+  </si>
+  <si>
+    <t>869636928009000</t>
+  </si>
+  <si>
+    <t>595451915013000</t>
+  </si>
+  <si>
+    <t>549713451009000</t>
+  </si>
+  <si>
+    <t>818476954435000</t>
+  </si>
+  <si>
+    <t>841282262043000</t>
+  </si>
+  <si>
+    <t>687149120085000</t>
+  </si>
+  <si>
+    <t>869963686034000</t>
+  </si>
+  <si>
+    <t>DOKTER</t>
+  </si>
+  <si>
+    <t>PEKERJA MANDIRI</t>
+  </si>
+  <si>
+    <t>ANGGOTA MILITER</t>
+  </si>
+  <si>
+    <t>MILITER</t>
+  </si>
+  <si>
+    <t>PERUSAHAAN KECIL</t>
+  </si>
+  <si>
+    <t>LAIN-LAIN</t>
+  </si>
+  <si>
+    <t>LEMBAGA PEMERINTAH</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5700000</t>
+  </si>
+  <si>
+    <t>60000000</t>
+  </si>
+  <si>
+    <t>14201841</t>
+  </si>
+  <si>
+    <t>40000000</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>15000000</t>
+  </si>
+  <si>
+    <t>9000000</t>
+  </si>
+  <si>
+    <t>14420000</t>
+  </si>
+  <si>
+    <t>BRI-JKT-UNIT GEDONG PANJANG</t>
+  </si>
+  <si>
+    <t>774301007060535</t>
+  </si>
+  <si>
+    <t>BCA-JKT-PALMERAH</t>
+  </si>
+  <si>
+    <t>BRI-JKT-KRAMAT JATI</t>
+  </si>
+  <si>
+    <t>325701001907502</t>
+  </si>
+  <si>
+    <t>BCA-BKS-BEKASI MOBIL</t>
+  </si>
+  <si>
+    <t>BCA-JKT-KELAPA GADING HIBRIDA</t>
+  </si>
+  <si>
+    <t>MAKSIMUS HASMAN S H</t>
+  </si>
+  <si>
+    <t>BNI-BGR-CITEREUP</t>
+  </si>
+  <si>
+    <t>BNI-BGR-PAJAJARAN</t>
+  </si>
+  <si>
+    <t>SONDANG MARIA</t>
   </si>
 </sst>
 </file>
@@ -356,14 +1442,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -376,7 +1461,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -384,40 +1469,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,761 +1792,4726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG5"/>
+  <dimension ref="A1:CH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="33.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="27.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="28" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="28.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="27" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="26.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="27" style="4" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="34.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="25.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="86" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:85" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:86" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="2">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2">
+        <v>140350000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>21100000</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F2" s="1">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1">
-        <v>141100000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>35275000</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="1">
-        <v>305001</v>
+      <c r="R2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>88</v>
       </c>
       <c r="X2" s="3"/>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
     </row>
-    <row r="3" spans="1:85" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:86" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F3" s="2">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2">
+        <v>227650000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>56912500</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F3" s="1">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1">
-        <v>141100000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>35275000</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="1">
-        <v>305001</v>
+      <c r="R3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="3" t="s">
         <v>88</v>
       </c>
       <c r="X3" s="3"/>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AB3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AJ3" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
     </row>
-    <row r="4" spans="1:85" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:86" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="2">
         <v>2018</v>
       </c>
-      <c r="F4" s="1">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1">
-        <v>141100000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>35275000</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>208950000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>52237500</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="2" t="s">
-        <v>104</v>
+      <c r="O4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="R4" s="3"/>
-      <c r="S4" s="1">
-        <v>305001</v>
+      <c r="S4" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="3" t="s">
         <v>88</v>
       </c>
       <c r="X4" s="3"/>
-      <c r="Y4" s="2" t="s">
+      <c r="Y4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AE4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AH4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AI4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AJ4" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
     </row>
-    <row r="5" spans="1:85" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F5" s="2">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2">
+        <v>261250000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>78375000</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F5" s="1">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1">
-        <v>141100000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>35275000</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="1">
-        <v>305001</v>
+      <c r="R5" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="X5" s="3"/>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AB5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AE5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AI5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AJ5" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+    </row>
+    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F6" s="2">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2">
+        <v>138150000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>27630000</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+    </row>
+    <row r="7" spans="1:86" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F7" s="2">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2">
+        <v>191100000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>47775000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+      <c r="CH7" s="3"/>
+    </row>
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F8" s="2">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>141100000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>35275000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
+      <c r="CH8" s="3"/>
+    </row>
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2">
+        <v>146250000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>36562500</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+      <c r="CH9" s="3"/>
+    </row>
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F10" s="2">
+        <v>60</v>
+      </c>
+      <c r="G10" s="2">
+        <v>264250000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>66200000</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
+      <c r="CH10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CU10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CL9" sqref="CL9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="18" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1989</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>12560</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>12560</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>11450</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>21</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>12560</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>11</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>11</v>
+      </c>
+      <c r="CO2" s="2">
+        <v>12420</v>
+      </c>
+      <c r="CP2" s="3"/>
+      <c r="CQ2" s="3"/>
+      <c r="CR2" s="3"/>
+      <c r="CS2" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3"/>
+    </row>
+    <row r="3" spans="1:99" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1976</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3" s="2">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>13760</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>13760</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="2">
+        <v>2009</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>6</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>16455</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>81</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>81383374978</v>
+      </c>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>43563</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>13760</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>12</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>10</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="CK3" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="CM3" s="2">
+        <v>11</v>
+      </c>
+      <c r="CN3" s="2">
+        <v>11</v>
+      </c>
+      <c r="CO3" s="2">
+        <v>13830</v>
+      </c>
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="3"/>
+      <c r="CR3" s="3"/>
+      <c r="CS3" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CT3" s="3"/>
+      <c r="CU3" s="3"/>
+    </row>
+    <row r="4" spans="1:99" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1977</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2">
+        <v>12260</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>7</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>11</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>12260</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>2007</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>5</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>12210</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>21</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>215307551</v>
+      </c>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>12260</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>7</v>
+      </c>
+      <c r="BZ4" s="2">
+        <v>11</v>
+      </c>
+      <c r="CA4" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="CK4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="CL4" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>11</v>
+      </c>
+      <c r="CN4" s="2">
+        <v>11</v>
+      </c>
+      <c r="CO4" s="2">
+        <v>13910</v>
+      </c>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="3"/>
+      <c r="CS4" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3"/>
+    </row>
+    <row r="5" spans="1:99" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1989</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>13870</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>13870</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>44</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>13840</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>21</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>2100000</v>
+      </c>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>13810</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>12</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>9</v>
+      </c>
+      <c r="CA5" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="CK5" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="CL5" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="CM5" s="2">
+        <v>11</v>
+      </c>
+      <c r="CN5" s="2">
+        <v>11</v>
+      </c>
+      <c r="CO5" s="2">
+        <v>16452</v>
+      </c>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="3"/>
+      <c r="CR5" s="3"/>
+      <c r="CS5" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CT5" s="3"/>
+      <c r="CU5" s="3"/>
+    </row>
+    <row r="6" spans="1:99" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1983</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2">
+        <v>17610</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>17610</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="BV6" s="2">
+        <v>2019</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BX6" s="2">
+        <v>13450</v>
+      </c>
+      <c r="BY6" s="2">
+        <v>12</v>
+      </c>
+      <c r="BZ6" s="2">
+        <v>5</v>
+      </c>
+      <c r="CA6" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CM6" s="2">
+        <v>11</v>
+      </c>
+      <c r="CN6" s="2">
+        <v>11</v>
+      </c>
+      <c r="CO6" s="2">
+        <v>17610</v>
+      </c>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="3"/>
+      <c r="CR6" s="3"/>
+      <c r="CS6" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CT6" s="3"/>
+      <c r="CU6" s="3"/>
+    </row>
+    <row r="7" spans="1:99" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1993</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>14240</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>14240</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>13720</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>21</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>2129616688</v>
+      </c>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+      <c r="CH7" s="3"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="CK7" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="CL7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="CM7" s="2">
+        <v>11</v>
+      </c>
+      <c r="CN7" s="2">
+        <v>11</v>
+      </c>
+      <c r="CO7" s="2">
+        <v>12420</v>
+      </c>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+    </row>
+    <row r="8" spans="1:99" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1982</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K8" s="2">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2">
+        <v>12</v>
+      </c>
+      <c r="M8" s="2">
+        <v>11720</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>14</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>11720</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ8" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BR8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BS8" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="BT8" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BU8" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>2019</v>
+      </c>
+      <c r="BW8" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>11720</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>14</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>12</v>
+      </c>
+      <c r="CA8" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
+      <c r="CH8" s="3"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="CK8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="CL8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="CM8" s="2">
+        <v>11</v>
+      </c>
+      <c r="CN8" s="2">
+        <v>11</v>
+      </c>
+      <c r="CO8" s="2">
+        <v>11720</v>
+      </c>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+    </row>
+    <row r="9" spans="1:99" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1982</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>16810</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>16810</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="2">
+        <v>2007</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>2005</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>2</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>10110</v>
+      </c>
+      <c r="BL9" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+      <c r="CH9" s="3"/>
+      <c r="CI9" s="3"/>
+      <c r="CJ9" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="CK9" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="CM9" s="2">
+        <v>11</v>
+      </c>
+      <c r="CN9" s="2">
+        <v>11</v>
+      </c>
+      <c r="CO9" s="2">
+        <v>16810</v>
+      </c>
+      <c r="CP9" s="3"/>
+      <c r="CQ9" s="3"/>
+      <c r="CR9" s="3"/>
+      <c r="CS9" s="3">
+        <v>81904067865</v>
+      </c>
+      <c r="CT9" s="3"/>
+      <c r="CU9" s="3"/>
+    </row>
+    <row r="10" spans="1:99" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1963</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>11750</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>11750</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="6">
+        <v>2015</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>81904067865</v>
+      </c>
+      <c r="AR10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT10" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="AU10" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="AV10" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="6">
+        <v>2001</v>
+      </c>
+      <c r="AZ10" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA10" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="BB10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC10" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="BD10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="BI10" s="6">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="6">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="6">
+        <v>16710</v>
+      </c>
+      <c r="BL10" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
+      <c r="BP10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ10" s="5"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="5"/>
+      <c r="BT10" s="5"/>
+      <c r="BU10" s="5"/>
+      <c r="BV10" s="6"/>
+      <c r="BW10" s="5"/>
+      <c r="BX10" s="5"/>
+      <c r="BY10" s="5"/>
+      <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="5"/>
+      <c r="CE10" s="5"/>
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="5"/>
+      <c r="CI10" s="5"/>
+      <c r="CJ10" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="CK10" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="CL10" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="CM10" s="6">
+        <v>11</v>
+      </c>
+      <c r="CN10" s="6">
+        <v>11</v>
+      </c>
+      <c r="CO10" s="6">
+        <v>11750</v>
+      </c>
+      <c r="CP10" s="5"/>
+      <c r="CQ10" s="5"/>
+      <c r="CR10" s="5"/>
+      <c r="CS10" s="5">
+        <v>81904067865</v>
+      </c>
+      <c r="CT10" s="5"/>
+      <c r="CU10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="7">
+        <v>5500000</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2291483650</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5210495870</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="M7" s="6">
+        <v>6300182397</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M8" s="5">
+        <v>250852147</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="M9" s="5">
+        <v>385612585</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2894074</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>